--- a/tablazatok/hasznalatiesetek.xlsx
+++ b/tablazatok/hasznalatiesetek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bence\Documents\GitHub\oprendszerek_beadando\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagytoth\Documents\repo\oprendszerek_beadando\tablazatok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107CF70C-2D57-40CB-849D-FF36C02E35EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7937BEB8-EB48-4275-B1D9-2CF4D4FDF738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="-120" windowWidth="27900" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>hallgató</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Felhasználó csoportok / Funkciók</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>saját home mappa elérése</t>
   </si>
 </sst>
 </file>
@@ -378,24 +384,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H5"/>
+      <selection activeCell="I5" sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="35" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -420,25 +426,85 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
